--- a/1_Requirements/Simple Gantt Chart.xlsx
+++ b/1_Requirements/Simple Gantt Chart.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93826579-6591-4F53-B07C-CACA7887AE69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,46 +20,19 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Phase 1 Title</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Phase 2 Title</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Insert new rows ABOVE this one</t>
   </si>
   <si>
     <t>Project Start:</t>
@@ -71,9 +45,6 @@
 TO</t>
   </si>
   <si>
-    <t>PROJECT TITLE</t>
-  </si>
-  <si>
     <t>Project Management Templates</t>
   </si>
   <si>
@@ -92,9 +63,6 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>Phase 3 Title</t>
-  </si>
-  <si>
     <t>More Project Management Templates</t>
   </si>
   <si>
@@ -128,16 +96,7 @@
     <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
   </si>
   <si>
-    <t>Phase 4 Title</t>
-  </si>
-  <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Project Lead</t>
   </si>
   <si>
     <t>There are 2 worksheets in this workbook. 
@@ -152,12 +111,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -232,17 +185,41 @@
 If you haven't added any new rows in this worksheet, you will find 2 additional sample phase blocks have been created for you in cells B20 and B26. Otherwise, navigate through column A cells to find the additional blocks. 
 Repeat the instructions from cells A8 and A9 whenever you need to.</t>
   </si>
+  <si>
+    <t>RubiksCubeSolver</t>
+  </si>
+  <si>
+    <t>LTTS</t>
+  </si>
+  <si>
+    <t>Sampanna</t>
+  </si>
+  <si>
+    <t>Creating .c files &amp; .h files</t>
+  </si>
+  <si>
+    <t>working on the functions</t>
+  </si>
+  <si>
+    <t>working on testing</t>
+  </si>
+  <si>
+    <t>pushing to github</t>
+  </si>
+  <si>
+    <t>documenting and rearranging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -619,7 +596,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -628,10 +605,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -668,13 +645,13 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,10 +671,10 @@
     <xf numFmtId="9" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,10 +686,10 @@
     <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,10 +701,10 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,10 +716,10 @@
     <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,10 +734,10 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,19 +803,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="11" applyFill="1">
@@ -883,6 +860,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -890,33 +879,21 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10"/>
+    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9"/>
-    <cellStyle name="Task" xfId="12"/>
+    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1044,7 +1021,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -1464,21 +1441,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -1491,10 +1468,10 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1502,615 +1479,614 @@
       <c r="F1" s="47"/>
       <c r="H1" s="2"/>
       <c r="I1" s="14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
-        <f ca="1">TODAY()</f>
-        <v>44046</v>
-      </c>
-      <c r="F3" s="91"/>
+        <v>40</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
+        <v>44298</v>
+      </c>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="86"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
-        <f ca="1">I5</f>
-        <v>44046</v>
-      </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
-        <f ca="1">P5</f>
-        <v>44053</v>
-      </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
-        <f ca="1">W5</f>
-        <v>44060</v>
-      </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
-        <f ca="1">AD5</f>
-        <v>44067</v>
-      </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
-        <f ca="1">AK5</f>
-        <v>44074</v>
-      </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
-        <f ca="1">AR5</f>
-        <v>44081</v>
-      </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
-        <f ca="1">AY5</f>
-        <v>44088</v>
-      </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
-        <f ca="1">BF5</f>
-        <v>44095</v>
-      </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="I4" s="85">
+        <f>I5</f>
+        <v>44298</v>
+      </c>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
+        <f>P5</f>
+        <v>44305</v>
+      </c>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
+        <f>W5</f>
+        <v>44312</v>
+      </c>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
+        <f>AD5</f>
+        <v>44319</v>
+      </c>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
+        <f>AK5</f>
+        <v>44326</v>
+      </c>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
+        <f>AR5</f>
+        <v>44333</v>
+      </c>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
+        <f>AY5</f>
+        <v>44340</v>
+      </c>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
+        <f>BF5</f>
+        <v>44347</v>
+      </c>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44046</v>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>44298</v>
       </c>
       <c r="J5" s="10">
-        <f ca="1">I5+1</f>
-        <v>44047</v>
+        <f>I5+1</f>
+        <v>44299</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44048</v>
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>44300</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44049</v>
+        <f t="shared" si="0"/>
+        <v>44301</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44050</v>
+        <f t="shared" si="0"/>
+        <v>44302</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44051</v>
+        <f t="shared" si="0"/>
+        <v>44303</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44052</v>
+        <f t="shared" si="0"/>
+        <v>44304</v>
       </c>
       <c r="P5" s="11">
-        <f ca="1">O5+1</f>
-        <v>44053</v>
+        <f>O5+1</f>
+        <v>44305</v>
       </c>
       <c r="Q5" s="10">
-        <f ca="1">P5+1</f>
-        <v>44054</v>
+        <f>P5+1</f>
+        <v>44306</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44055</v>
+        <f t="shared" si="0"/>
+        <v>44307</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44056</v>
+        <f t="shared" si="0"/>
+        <v>44308</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44057</v>
+        <f t="shared" si="0"/>
+        <v>44309</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44058</v>
+        <f t="shared" si="0"/>
+        <v>44310</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44059</v>
+        <f t="shared" si="0"/>
+        <v>44311</v>
       </c>
       <c r="W5" s="11">
-        <f ca="1">V5+1</f>
-        <v>44060</v>
+        <f>V5+1</f>
+        <v>44312</v>
       </c>
       <c r="X5" s="10">
-        <f ca="1">W5+1</f>
-        <v>44061</v>
+        <f>W5+1</f>
+        <v>44313</v>
       </c>
       <c r="Y5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44062</v>
+        <f t="shared" si="0"/>
+        <v>44314</v>
       </c>
       <c r="Z5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44063</v>
+        <f t="shared" si="0"/>
+        <v>44315</v>
       </c>
       <c r="AA5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44064</v>
+        <f t="shared" si="0"/>
+        <v>44316</v>
       </c>
       <c r="AB5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44065</v>
+        <f t="shared" si="0"/>
+        <v>44317</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44066</v>
+        <f t="shared" si="0"/>
+        <v>44318</v>
       </c>
       <c r="AD5" s="11">
-        <f ca="1">AC5+1</f>
-        <v>44067</v>
+        <f>AC5+1</f>
+        <v>44319</v>
       </c>
       <c r="AE5" s="10">
-        <f ca="1">AD5+1</f>
-        <v>44068</v>
+        <f>AD5+1</f>
+        <v>44320</v>
       </c>
       <c r="AF5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44069</v>
+        <f t="shared" si="0"/>
+        <v>44321</v>
       </c>
       <c r="AG5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44070</v>
+        <f t="shared" si="0"/>
+        <v>44322</v>
       </c>
       <c r="AH5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44071</v>
+        <f t="shared" si="0"/>
+        <v>44323</v>
       </c>
       <c r="AI5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44072</v>
+        <f t="shared" si="0"/>
+        <v>44324</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44073</v>
+        <f t="shared" si="0"/>
+        <v>44325</v>
       </c>
       <c r="AK5" s="11">
-        <f ca="1">AJ5+1</f>
-        <v>44074</v>
+        <f>AJ5+1</f>
+        <v>44326</v>
       </c>
       <c r="AL5" s="10">
-        <f ca="1">AK5+1</f>
-        <v>44075</v>
+        <f>AK5+1</f>
+        <v>44327</v>
       </c>
       <c r="AM5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44076</v>
+        <f t="shared" si="0"/>
+        <v>44328</v>
       </c>
       <c r="AN5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44077</v>
+        <f t="shared" si="0"/>
+        <v>44329</v>
       </c>
       <c r="AO5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44078</v>
+        <f t="shared" si="0"/>
+        <v>44330</v>
       </c>
       <c r="AP5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44079</v>
+        <f t="shared" si="0"/>
+        <v>44331</v>
       </c>
       <c r="AQ5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44080</v>
+        <f t="shared" si="0"/>
+        <v>44332</v>
       </c>
       <c r="AR5" s="11">
-        <f ca="1">AQ5+1</f>
-        <v>44081</v>
+        <f>AQ5+1</f>
+        <v>44333</v>
       </c>
       <c r="AS5" s="10">
-        <f ca="1">AR5+1</f>
-        <v>44082</v>
+        <f>AR5+1</f>
+        <v>44334</v>
       </c>
       <c r="AT5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44083</v>
+        <f t="shared" si="0"/>
+        <v>44335</v>
       </c>
       <c r="AU5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44084</v>
+        <f t="shared" si="0"/>
+        <v>44336</v>
       </c>
       <c r="AV5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44085</v>
+        <f t="shared" si="0"/>
+        <v>44337</v>
       </c>
       <c r="AW5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44086</v>
+        <f t="shared" si="0"/>
+        <v>44338</v>
       </c>
       <c r="AX5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44087</v>
+        <f t="shared" si="0"/>
+        <v>44339</v>
       </c>
       <c r="AY5" s="11">
-        <f ca="1">AX5+1</f>
-        <v>44088</v>
+        <f>AX5+1</f>
+        <v>44340</v>
       </c>
       <c r="AZ5" s="10">
-        <f ca="1">AY5+1</f>
-        <v>44089</v>
+        <f>AY5+1</f>
+        <v>44341</v>
       </c>
       <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44090</v>
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <v>44342</v>
       </c>
       <c r="BB5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44091</v>
+        <f t="shared" si="1"/>
+        <v>44343</v>
       </c>
       <c r="BC5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44092</v>
+        <f t="shared" si="1"/>
+        <v>44344</v>
       </c>
       <c r="BD5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44093</v>
+        <f t="shared" si="1"/>
+        <v>44345</v>
       </c>
       <c r="BE5" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>44094</v>
+        <f t="shared" si="1"/>
+        <v>44346</v>
       </c>
       <c r="BF5" s="11">
-        <f ca="1">BE5+1</f>
-        <v>44095</v>
+        <f>BE5+1</f>
+        <v>44347</v>
       </c>
       <c r="BG5" s="10">
-        <f ca="1">BF5+1</f>
-        <v>44096</v>
+        <f>BF5+1</f>
+        <v>44348</v>
       </c>
       <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44097</v>
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <v>44349</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44098</v>
+        <f t="shared" si="2"/>
+        <v>44350</v>
       </c>
       <c r="BJ5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44099</v>
+        <f t="shared" si="2"/>
+        <v>44351</v>
       </c>
       <c r="BK5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44100</v>
+        <f t="shared" si="2"/>
+        <v>44352</v>
       </c>
       <c r="BL5" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>44101</v>
+        <f t="shared" si="2"/>
+        <v>44353</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" ca="1" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>W</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="AV6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="AY6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BA6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>W</v>
       </c>
       <c r="BB6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BC6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
       <c r="BD6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="BE6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="BF6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>M</v>
       </c>
       <c r="BG6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BH6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>W</v>
       </c>
       <c r="BI6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
       <c r="BK6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="BL6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -2177,7 +2153,7 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>0</v>
@@ -2250,29 +2226,27 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C9" s="72"/>
       <c r="D9" s="22">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="66">
-        <f ca="1">Project_Start</f>
-        <v>44046</v>
+        <f>Project_Start</f>
+        <v>44298</v>
       </c>
       <c r="F9" s="66">
-        <f ca="1">E9+3</f>
-        <v>44049</v>
+        <f>E9+1</f>
+        <v>44299</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2333,27 +2307,27 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C10" s="72"/>
       <c r="D10" s="22">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="66">
-        <f ca="1">F9</f>
-        <v>44049</v>
+        <f>F9</f>
+        <v>44299</v>
       </c>
       <c r="F10" s="66">
-        <f ca="1">E10+2</f>
-        <v>44051</v>
+        <f>E10+1</f>
+        <v>44300</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -2415,24 +2389,24 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="22">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="E11" s="66">
-        <f ca="1">F10</f>
-        <v>44051</v>
+        <f>F10</f>
+        <v>44300</v>
       </c>
       <c r="F11" s="66">
-        <f ca="1">E11+4</f>
-        <v>44055</v>
+        <f>E11+1</f>
+        <v>44301</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2494,24 +2468,24 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="22">
         <v>0.25</v>
       </c>
       <c r="E12" s="66">
-        <f ca="1">F11</f>
-        <v>44055</v>
+        <f>F11</f>
+        <v>44301</v>
       </c>
       <c r="F12" s="66">
-        <f ca="1">E12+5</f>
-        <v>44060</v>
+        <f>E12+1</f>
+        <v>44302</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2573,21 +2547,23 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C13" s="72"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22">
+        <v>0.6</v>
+      </c>
       <c r="E13" s="66">
-        <f ca="1">E10+1</f>
-        <v>44050</v>
+        <f>E10+3</f>
+        <v>44302</v>
       </c>
       <c r="F13" s="66">
-        <f ca="1">E13+2</f>
-        <v>44052</v>
+        <f>E13+2</f>
+        <v>44304</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I13" s="44"/>
@@ -2649,11 +2625,9 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>4</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B14" s="23"/>
       <c r="C14" s="73"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
@@ -2722,25 +2696,15 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="81" t="s">
-        <v>5</v>
-      </c>
+      <c r="B15" s="81"/>
       <c r="C15" s="74"/>
-      <c r="D15" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="67">
-        <f ca="1">E13+1</f>
-        <v>44051</v>
-      </c>
-      <c r="F15" s="67">
-        <f ca="1">E15+4</f>
-        <v>44055</v>
-      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H15" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2801,25 +2765,15 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
-      <c r="B16" s="81" t="s">
-        <v>6</v>
-      </c>
+      <c r="B16" s="81"/>
       <c r="C16" s="74"/>
-      <c r="D16" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="67">
-        <f ca="1">E15+2</f>
-        <v>44053</v>
-      </c>
-      <c r="F16" s="67">
-        <f ca="1">E16+5</f>
-        <v>44058</v>
-      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H16" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2880,23 +2834,15 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
-      <c r="B17" s="81" t="s">
-        <v>1</v>
-      </c>
+      <c r="B17" s="81"/>
       <c r="C17" s="74"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="67">
-        <f ca="1">F16</f>
-        <v>44058</v>
-      </c>
-      <c r="F17" s="67">
-        <f ca="1">E17+3</f>
-        <v>44061</v>
-      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+      <c r="H17" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2957,23 +2903,15 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
-      <c r="B18" s="81" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="81"/>
       <c r="C18" s="74"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="67">
-        <f ca="1">E17</f>
-        <v>44058</v>
-      </c>
-      <c r="F18" s="67">
-        <f ca="1">E18+2</f>
-        <v>44060</v>
-      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+      <c r="H18" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3034,23 +2972,15 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
-      <c r="B19" s="81" t="s">
-        <v>3</v>
-      </c>
+      <c r="B19" s="81"/>
       <c r="C19" s="74"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="67">
-        <f ca="1">E18</f>
-        <v>44058</v>
-      </c>
-      <c r="F19" s="67">
-        <f ca="1">E19+3</f>
-        <v>44061</v>
-      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+      <c r="H19" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3111,11 +3041,9 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>18</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B20" s="28"/>
       <c r="C20" s="75"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -3184,23 +3112,15 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
-      <c r="B21" s="82" t="s">
-        <v>5</v>
-      </c>
+      <c r="B21" s="82"/>
       <c r="C21" s="76"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="68">
-        <f ca="1">E9+15</f>
-        <v>44061</v>
-      </c>
-      <c r="F21" s="68">
-        <f ca="1">E21+5</f>
-        <v>44066</v>
-      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H21" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3261,23 +3181,15 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
-      <c r="B22" s="82" t="s">
-        <v>6</v>
-      </c>
+      <c r="B22" s="82"/>
       <c r="C22" s="76"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="68">
-        <f ca="1">F21+1</f>
-        <v>44067</v>
-      </c>
-      <c r="F22" s="68">
-        <f ca="1">E22+4</f>
-        <v>44071</v>
-      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H22" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3338,23 +3250,15 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
-      <c r="B23" s="82" t="s">
-        <v>1</v>
-      </c>
+      <c r="B23" s="82"/>
       <c r="C23" s="76"/>
       <c r="D23" s="32"/>
-      <c r="E23" s="68">
-        <f ca="1">E22+5</f>
-        <v>44072</v>
-      </c>
-      <c r="F23" s="68">
-        <f ca="1">E23+5</f>
-        <v>44077</v>
-      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H23" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3415,23 +3319,15 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="82" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="82"/>
       <c r="C24" s="76"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="68">
-        <f ca="1">F23+1</f>
-        <v>44078</v>
-      </c>
-      <c r="F24" s="68">
-        <f ca="1">E24+4</f>
-        <v>44082</v>
-      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H24" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3492,23 +3388,15 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="82" t="s">
-        <v>3</v>
-      </c>
+      <c r="B25" s="82"/>
       <c r="C25" s="76"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="68">
-        <f ca="1">E23</f>
-        <v>44072</v>
-      </c>
-      <c r="F25" s="68">
-        <f ca="1">E25+4</f>
-        <v>44076</v>
-      </c>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+      <c r="H25" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3569,11 +3457,9 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B26" s="33"/>
       <c r="C26" s="77"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
@@ -3642,21 +3528,15 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
-      <c r="B27" s="83" t="s">
-        <v>5</v>
-      </c>
+      <c r="B27" s="83"/>
       <c r="C27" s="78"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
+      <c r="H27" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3717,21 +3597,15 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
-      <c r="B28" s="83" t="s">
-        <v>6</v>
-      </c>
+      <c r="B28" s="83"/>
       <c r="C28" s="78"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
+      <c r="H28" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3792,21 +3666,15 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
-      <c r="B29" s="83" t="s">
-        <v>1</v>
-      </c>
+      <c r="B29" s="83"/>
       <c r="C29" s="78"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3867,21 +3735,15 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
-      <c r="B30" s="83" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="83"/>
       <c r="C30" s="78"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
+      <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -3942,21 +3804,15 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
-      <c r="B31" s="83" t="s">
-        <v>3</v>
-      </c>
+      <c r="B31" s="83"/>
       <c r="C31" s="78"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
+      <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -4017,7 +3873,7 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B32" s="84"/>
       <c r="C32" s="79"/>
@@ -4088,11 +3944,9 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B33" s="38"/>
       <c r="C33" s="39"/>
       <c r="D33" s="40"/>
       <c r="E33" s="41"/>
@@ -4171,6 +4025,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4178,11 +4037,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4212,13 +4066,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I1" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4226,9 +4080,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4254,7 +4105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4268,87 +4119,87 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="52" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -4357,6 +4208,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE49C3B21729434C834F03C10CFD3EE7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dda2e0ad570191573d4862d24315b090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f90b35a-c7f5-466e-bdce-aad1192bcad3" xmlns:ns3="abad16e2-75b5-4d02-890c-30395bfef711" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="822e9fa36678c5abd975587ddd4d1967" ns2:_="" ns3:_="">
     <xsd:import namespace="3f90b35a-c7f5-466e-bdce-aad1192bcad3"/>
@@ -4567,29 +4433,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49C0C78-21B3-4F87-B703-D4DFD6AB582D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED231826-376F-4402-BA4A-6738EDB3C2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFEB13B-E464-42B4-95B6-1B297F6F0D89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED231826-376F-4402-BA4A-6738EDB3C2A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49C0C78-21B3-4F87-B703-D4DFD6AB582D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f90b35a-c7f5-466e-bdce-aad1192bcad3"/>
+    <ds:schemaRef ds:uri="abad16e2-75b5-4d02-890c-30395bfef711"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>